--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value87.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value87.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146595621220998</v>
+        <v>0.1351698189973831</v>
       </c>
       <c r="B1">
-        <v>1.331543270220686</v>
+        <v>0.1156130135059357</v>
       </c>
       <c r="C1">
-        <v>1.701918393377119</v>
+        <v>0.1065426841378212</v>
       </c>
       <c r="D1">
-        <v>3.676916773199267</v>
+        <v>0.1216452568769455</v>
       </c>
       <c r="E1">
-        <v>4.010519102513539</v>
+        <v>0.1593261808156967</v>
       </c>
     </row>
   </sheetData>
